--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2973,6 +2973,67 @@
       </c>
       <c r="S41" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>45304</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="n">
+        <v>122</v>
+      </c>
+      <c r="E42" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.594</v>
+      </c>
+      <c r="G42" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="H42" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="J42" t="n">
+        <v>123.5</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>116</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="N42" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="O42" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2986,7 +3047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3013,11 +3074,11 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45304</v>
+        <v>45306</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3026,11 +3087,11 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>45309</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3039,37 +3100,37 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45309</v>
+        <v>45311</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45311</v>
+        <v>45313</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45313</v>
+        <v>45316</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3078,11 +3139,11 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45316</v>
+        <v>45319</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3091,50 +3152,50 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45319</v>
+        <v>45321</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45321</v>
+        <v>45322</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45322</v>
+        <v>45325</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45325</v>
+        <v>45328</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3143,24 +3204,24 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3169,11 +3230,11 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3182,11 +3243,11 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3195,50 +3256,50 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45344</v>
+        <v>45347</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3247,11 +3308,11 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3260,24 +3321,24 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3286,11 +3347,11 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3299,11 +3360,11 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3312,50 +3373,50 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3364,11 +3425,11 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3377,37 +3438,37 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3416,11 +3477,11 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3429,24 +3490,24 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3455,24 +3516,24 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45383</v>
+        <v>45387</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3481,50 +3542,50 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -3533,27 +3594,14 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S42"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3034,6 +3034,67 @@
       </c>
       <c r="S42" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D43" t="n">
+        <v>91</v>
+      </c>
+      <c r="E43" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="G43" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="H43" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="J43" t="n">
+        <v>93.5</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>109</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="N43" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="O43" t="n">
+        <v>26</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>112</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3047,7 +3108,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3074,11 +3135,11 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45306</v>
+        <v>45309</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3087,37 +3148,37 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45309</v>
+        <v>45311</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45311</v>
+        <v>45313</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHO</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>45316</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3126,11 +3187,11 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45316</v>
+        <v>45319</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3139,50 +3200,50 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45319</v>
+        <v>45321</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45321</v>
+        <v>45322</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45322</v>
+        <v>45325</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45325</v>
+        <v>45328</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3191,24 +3252,24 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3217,11 +3278,11 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3230,11 +3291,11 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3243,50 +3304,50 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45344</v>
+        <v>45347</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3295,11 +3356,11 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3308,24 +3369,24 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3334,11 +3395,11 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3347,11 +3408,11 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3360,50 +3421,50 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3412,11 +3473,11 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3425,37 +3486,37 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -3464,11 +3525,11 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3477,24 +3538,24 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3503,24 +3564,24 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45383</v>
+        <v>45387</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3529,50 +3590,50 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -3581,27 +3642,14 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S43"/>
+  <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3094,6 +3094,189 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>45309</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="n">
+        <v>116</v>
+      </c>
+      <c r="E44" t="n">
+        <v>97.40000000000001</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="G44" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="H44" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.154</v>
+      </c>
+      <c r="J44" t="n">
+        <v>119.1</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>110</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.5659999999999999</v>
+      </c>
+      <c r="N44" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="O44" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>113</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>45311</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2</v>
+      </c>
+      <c r="D45" t="n">
+        <v>125</v>
+      </c>
+      <c r="E45" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="G45" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="H45" t="n">
+        <v>31</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="J45" t="n">
+        <v>130.4</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>96</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="N45" t="n">
+        <v>15</v>
+      </c>
+      <c r="O45" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>100.1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>113</v>
+      </c>
+      <c r="E46" t="n">
+        <v>93.3</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="G46" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="H46" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="J46" t="n">
+        <v>121.1</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>PHO</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>115</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="N46" t="n">
+        <v>7</v>
+      </c>
+      <c r="O46" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>123.2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3108,7 +3291,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3135,11 +3318,11 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45309</v>
+        <v>45316</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3148,37 +3331,37 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45311</v>
+        <v>45319</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45313</v>
+        <v>45321</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PHO</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45316</v>
+        <v>45322</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3187,24 +3370,24 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45319</v>
+        <v>45325</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45321</v>
+        <v>45328</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3213,11 +3396,11 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45322</v>
+        <v>45330</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3226,37 +3409,37 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45325</v>
+        <v>45332</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45328</v>
+        <v>45334</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45330</v>
+        <v>45336</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3265,24 +3448,24 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45332</v>
+        <v>45344</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45334</v>
+        <v>45347</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3291,24 +3474,24 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45336</v>
+        <v>45349</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45344</v>
+        <v>45350</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3317,63 +3500,63 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45347</v>
+        <v>45352</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45349</v>
+        <v>45355</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45350</v>
+        <v>45357</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45352</v>
+        <v>45358</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45355</v>
+        <v>45360</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3382,24 +3565,24 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45357</v>
+        <v>45362</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45358</v>
+        <v>45364</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3408,7 +3591,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45360</v>
+        <v>45365</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -3416,16 +3599,16 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45362</v>
+        <v>45367</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3434,37 +3617,37 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45364</v>
+        <v>45369</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45365</v>
+        <v>45372</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45367</v>
+        <v>45374</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3473,11 +3656,11 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45369</v>
+        <v>45376</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3486,50 +3669,50 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45372</v>
+        <v>45378</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45374</v>
+        <v>45380</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45376</v>
+        <v>45382</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45378</v>
+        <v>45383</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3538,24 +3721,24 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45380</v>
+        <v>45387</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45382</v>
+        <v>45389</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3564,11 +3747,11 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45383</v>
+        <v>45391</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3577,24 +3760,24 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45387</v>
+        <v>45393</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45389</v>
+        <v>45394</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3603,7 +3786,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45391</v>
+        <v>45396</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3611,45 +3794,6 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>45393</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3277,6 +3277,67 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>45316</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D47" t="n">
+        <v>132</v>
+      </c>
+      <c r="E47" t="n">
+        <v>101.3</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="G47" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="H47" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="J47" t="n">
+        <v>130.2</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>141</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.724</v>
+      </c>
+      <c r="N47" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="O47" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>139.1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3291,7 +3352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3318,11 +3379,11 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45316</v>
+        <v>45319</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3331,50 +3392,50 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45319</v>
+        <v>45321</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45321</v>
+        <v>45322</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45322</v>
+        <v>45325</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45325</v>
+        <v>45328</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3383,24 +3444,24 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3409,11 +3470,11 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3422,11 +3483,11 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3435,50 +3496,50 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45344</v>
+        <v>45347</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3487,11 +3548,11 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3500,24 +3561,24 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3526,11 +3587,11 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3539,11 +3600,11 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3552,50 +3613,50 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3604,11 +3665,11 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3617,37 +3678,37 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3656,11 +3717,11 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3669,24 +3730,24 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3695,24 +3756,24 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45383</v>
+        <v>45387</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3721,50 +3782,50 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3773,27 +3834,14 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -17,9 +17,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -59,12 +61,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3339,6 +3342,67 @@
       </c>
       <c r="S47" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="n">
+        <v>45319</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="n">
+        <v>104</v>
+      </c>
+      <c r="E48" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.511</v>
+      </c>
+      <c r="G48" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H48" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="J48" t="n">
+        <v>109.2</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>96</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="N48" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="O48" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.329</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>100.8</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3352,7 +3416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3378,470 +3442,457 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45319</v>
+      <c r="A2" s="3" t="n">
+        <v>45321</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>45322</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CHO</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>45325</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>45328</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45330</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>45332</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45334</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>45336</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>45344</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>45347</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>45349</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>45350</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="n">
+        <v>45355</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="n">
+        <v>45357</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="n">
+        <v>45358</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="n">
+        <v>45360</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="n">
+        <v>45364</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>45365</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>45367</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>POR</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45321</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45322</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CHO</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45325</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45328</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="n">
+        <v>45372</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>45374</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>45378</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>45380</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>BRK</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>45382</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>MIN</t>
         </is>
       </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45330</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>MEM</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45332</v>
-      </c>
-      <c r="B8" t="inlineStr">
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="n">
+        <v>45389</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>ORL</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45334</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>45336</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>45344</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>45347</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>NOP</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>45349</v>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="3" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>DET</t>
         </is>
       </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>45350</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>45352</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>MIL</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>45355</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>SAC</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>45357</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>UTA</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>45358</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>45360</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>45364</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>45365</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>45367</v>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>WAS</t>
         </is>
       </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>POR</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>45372</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>45374</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>45378</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>45380</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>BRK</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>45382</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>45383</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>45387</v>
-      </c>
-      <c r="B32" t="inlineStr">
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>45396</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>NYK</t>
         </is>
       </c>
-      <c r="C32" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>45389</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>ORL</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>45391</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>45393</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>DET</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
       <c r="C36" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S48"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3348,7 +3348,7 @@
       <c r="A48" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="2" t="n">
         <v>45319</v>
       </c>
       <c r="C48" t="n">
@@ -3403,6 +3403,67 @@
       </c>
       <c r="S48" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="n">
+        <v>45321</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D49" t="n">
+        <v>107</v>
+      </c>
+      <c r="E49" t="n">
+        <v>97.7</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G49" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="H49" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="J49" t="n">
+        <v>109.6</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>118</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="N49" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="O49" t="n">
+        <v>25</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>120.8</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3416,7 +3477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3443,37 +3504,37 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45321</v>
+        <v>45322</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOR</t>
+          <t>CHO</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45322</v>
+        <v>45325</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45325</v>
+        <v>45328</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3482,24 +3543,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3508,11 +3569,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3521,11 +3582,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3534,50 +3595,50 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45344</v>
+        <v>45347</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3586,11 +3647,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3599,24 +3660,24 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3625,11 +3686,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3638,11 +3699,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3651,50 +3712,50 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3703,11 +3764,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3716,37 +3777,37 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3755,11 +3816,11 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3768,24 +3829,24 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3794,24 +3855,24 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45383</v>
+        <v>45387</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3820,50 +3881,50 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3872,27 +3933,14 @@
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -3409,7 +3409,7 @@
       <c r="A49" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="2" t="n">
         <v>45321</v>
       </c>
       <c r="C49" t="n">

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3464,6 +3464,67 @@
       </c>
       <c r="S49" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="n">
+        <v>45322</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="n">
+        <v>117</v>
+      </c>
+      <c r="E50" t="n">
+        <v>93.7</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="G50" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="H50" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.184</v>
+      </c>
+      <c r="J50" t="n">
+        <v>124.9</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>CHO</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>110</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.533</v>
+      </c>
+      <c r="N50" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O50" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>117.4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3477,7 +3538,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3504,24 +3565,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45322</v>
+        <v>45325</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CHO</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45325</v>
+        <v>45328</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3530,24 +3591,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3556,11 +3617,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3569,11 +3630,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3582,50 +3643,50 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45344</v>
+        <v>45347</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3634,11 +3695,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3647,24 +3708,24 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3673,11 +3734,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3686,11 +3747,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3699,50 +3760,50 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3751,11 +3812,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3764,37 +3825,37 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3803,11 +3864,11 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3816,24 +3877,24 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3842,24 +3903,24 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45383</v>
+        <v>45387</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3868,50 +3929,50 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3920,27 +3981,14 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -3470,7 +3470,7 @@
       <c r="A50" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="2" t="n">
         <v>45322</v>
       </c>
       <c r="C50" t="n">

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S50"/>
+  <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3525,6 +3525,67 @@
       </c>
       <c r="S50" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="n">
+        <v>45325</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D51" t="n">
+        <v>115</v>
+      </c>
+      <c r="E51" t="n">
+        <v>105.3</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="G51" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="H51" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="J51" t="n">
+        <v>109.2</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>123</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.589</v>
+      </c>
+      <c r="N51" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="O51" t="n">
+        <v>10</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>116.8</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3538,7 +3599,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3565,11 +3626,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45325</v>
+        <v>45328</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3578,24 +3639,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3604,11 +3665,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3617,11 +3678,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3630,50 +3691,50 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45344</v>
+        <v>45347</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3682,11 +3743,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3695,24 +3756,24 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3721,11 +3782,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3734,11 +3795,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3747,50 +3808,50 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3799,11 +3860,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3812,37 +3873,37 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3851,11 +3912,11 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3864,24 +3925,24 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -3890,24 +3951,24 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45383</v>
+        <v>45387</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -3916,50 +3977,50 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3968,27 +4029,14 @@
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S51"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3531,7 +3531,7 @@
       <c r="A51" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="2" t="n">
         <v>45325</v>
       </c>
       <c r="C51" t="n">
@@ -3586,6 +3586,67 @@
       </c>
       <c r="S51" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="n">
+        <v>45328</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="n">
+        <v>129</v>
+      </c>
+      <c r="E52" t="n">
+        <v>94.40000000000001</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.548</v>
+      </c>
+      <c r="G52" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="H52" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="J52" t="n">
+        <v>123.8</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>123</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="N52" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="O52" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.207</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>118</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3599,7 +3660,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3626,24 +3687,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45328</v>
+        <v>45330</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3652,11 +3713,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3665,11 +3726,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3678,50 +3739,50 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45344</v>
+        <v>45347</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3730,11 +3791,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3743,24 +3804,24 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3769,11 +3830,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3782,11 +3843,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -3795,50 +3856,50 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3847,11 +3908,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -3860,37 +3921,37 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3899,11 +3960,11 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -3912,24 +3973,24 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -3938,24 +3999,24 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45383</v>
+        <v>45387</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -3964,50 +4025,50 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -4016,27 +4077,14 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3592,7 +3592,7 @@
       <c r="A52" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="2" t="n">
         <v>45328</v>
       </c>
       <c r="C52" t="n">
@@ -3646,6 +3646,67 @@
         <v>1</v>
       </c>
       <c r="S52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="n">
+        <v>45330</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2</v>
+      </c>
+      <c r="D53" t="n">
+        <v>118</v>
+      </c>
+      <c r="E53" t="n">
+        <v>93.8</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G53" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="H53" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="J53" t="n">
+        <v>125.8</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>110</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="N53" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O53" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>117.3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0</v>
+      </c>
+      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3660,7 +3721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3687,11 +3748,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45330</v>
+        <v>45332</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3700,11 +3761,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3713,11 +3774,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3726,50 +3787,50 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45344</v>
+        <v>45347</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3778,11 +3839,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3791,24 +3852,24 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3817,11 +3878,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3830,11 +3891,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -3843,50 +3904,50 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3895,11 +3956,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -3908,37 +3969,37 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -3947,11 +4008,11 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -3960,24 +4021,24 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -3986,24 +4047,24 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45383</v>
+        <v>45387</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4012,50 +4073,50 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -4064,27 +4125,14 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S53"/>
+  <dimension ref="A1:S54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3653,7 +3653,7 @@
       <c r="A53" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="2" t="n">
         <v>45330</v>
       </c>
       <c r="C53" t="n">
@@ -3708,6 +3708,67 @@
       </c>
       <c r="S53" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="2" t="n">
+        <v>45332</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D54" t="n">
+        <v>108</v>
+      </c>
+      <c r="E54" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="G54" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="H54" t="n">
+        <v>34</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="J54" t="n">
+        <v>114.6</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>114</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="N54" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="O54" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>121</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3721,7 +3782,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3748,11 +3809,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45332</v>
+        <v>45334</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3761,11 +3822,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -3774,50 +3835,50 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45344</v>
+        <v>45347</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3826,11 +3887,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3839,24 +3900,24 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3865,11 +3926,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3878,11 +3939,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -3891,50 +3952,50 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -3943,11 +4004,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -3956,37 +4017,37 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -3995,11 +4056,11 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4008,24 +4069,24 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4034,24 +4095,24 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45383</v>
+        <v>45387</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -4060,50 +4121,50 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -4112,27 +4173,14 @@
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S54"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3769,6 +3769,67 @@
       </c>
       <c r="S54" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="n">
+        <v>45334</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="n">
+        <v>136</v>
+      </c>
+      <c r="E55" t="n">
+        <v>101.5</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G55" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H55" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="J55" t="n">
+        <v>134</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>126</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.543</v>
+      </c>
+      <c r="N55" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="O55" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>124.2</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3782,7 +3843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3809,11 +3870,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45334</v>
+        <v>45336</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -3822,50 +3883,50 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45344</v>
+        <v>45347</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3874,11 +3935,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -3887,24 +3948,24 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3913,11 +3974,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3926,11 +3987,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -3939,50 +4000,50 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -3991,11 +4052,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4004,37 +4065,37 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4043,11 +4104,11 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4056,24 +4117,24 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4082,24 +4143,24 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45383</v>
+        <v>45387</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4108,50 +4169,50 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -4160,27 +4221,14 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -3775,7 +3775,7 @@
       <c r="A55" t="n">
         <v>54</v>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="2" t="n">
         <v>45334</v>
       </c>
       <c r="C55" t="n">

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S55"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3830,6 +3830,67 @@
       </c>
       <c r="S55" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="n">
+        <v>45336</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D56" t="n">
+        <v>105</v>
+      </c>
+      <c r="E56" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.542</v>
+      </c>
+      <c r="G56" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="H56" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="J56" t="n">
+        <v>113.3</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>108</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.554</v>
+      </c>
+      <c r="N56" t="n">
+        <v>8</v>
+      </c>
+      <c r="O56" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>116.5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3843,7 +3904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3870,50 +3931,50 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45336</v>
+        <v>45344</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45344</v>
+        <v>45347</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3922,11 +3983,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -3935,24 +3996,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -3961,11 +4022,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -3974,11 +4035,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -3987,50 +4048,50 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4039,11 +4100,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4052,37 +4113,37 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4091,11 +4152,11 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4104,24 +4165,24 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4130,24 +4191,24 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45383</v>
+        <v>45387</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4156,50 +4217,50 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -4208,27 +4269,14 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -3836,7 +3836,7 @@
       <c r="A56" t="n">
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="2" t="n">
         <v>45336</v>
       </c>
       <c r="C56" t="n">

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3890,6 +3890,67 @@
         <v>0</v>
       </c>
       <c r="S56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="n">
+        <v>45344</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D57" t="n">
+        <v>112</v>
+      </c>
+      <c r="E57" t="n">
+        <v>98.2</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.521</v>
+      </c>
+      <c r="G57" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="H57" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.149</v>
+      </c>
+      <c r="J57" t="n">
+        <v>114</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>129</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.681</v>
+      </c>
+      <c r="N57" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="O57" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>131.3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1</v>
+      </c>
+      <c r="S57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3904,7 +3965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3931,37 +3992,37 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45344</v>
+        <v>45347</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NOP</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -3970,11 +4031,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -3983,24 +4044,24 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4009,11 +4070,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4022,11 +4083,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4035,50 +4096,50 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4087,11 +4148,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4100,37 +4161,37 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4139,11 +4200,11 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4152,24 +4213,24 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4178,24 +4239,24 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45383</v>
+        <v>45387</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4204,50 +4265,50 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -4256,27 +4317,14 @@
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -3897,7 +3897,7 @@
       <c r="A57" t="n">
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="2" t="n">
         <v>45344</v>
       </c>
       <c r="C57" t="n">

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S57"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3952,6 +3952,67 @@
       </c>
       <c r="S57" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="n">
+        <v>45347</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="n">
+        <v>114</v>
+      </c>
+      <c r="E58" t="n">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G58" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="H58" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J58" t="n">
+        <v>115</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>106</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="N58" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="O58" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>106.9</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3965,7 +4026,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3992,24 +4053,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45347</v>
+        <v>45349</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NOP</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4018,11 +4079,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4031,24 +4092,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4057,11 +4118,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4070,11 +4131,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4083,50 +4144,50 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4135,11 +4196,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4148,37 +4209,37 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4187,11 +4248,11 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4200,24 +4261,24 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4226,24 +4287,24 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45383</v>
+        <v>45387</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4252,50 +4313,50 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -4304,27 +4365,14 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -3958,7 +3958,7 @@
       <c r="A58" t="n">
         <v>57</v>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="2" t="n">
         <v>45347</v>
       </c>
       <c r="C58" t="n">

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S58"/>
+  <dimension ref="A1:S59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4013,6 +4013,67 @@
       </c>
       <c r="S58" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="n">
+        <v>45349</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>95</v>
+      </c>
+      <c r="E59" t="n">
+        <v>92.8</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="G59" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H59" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="J59" t="n">
+        <v>102.3</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>105</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.587</v>
+      </c>
+      <c r="N59" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="O59" t="n">
+        <v>25</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>113.1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>1</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4026,7 +4087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4053,11 +4114,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45349</v>
+        <v>45350</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4066,11 +4127,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4079,24 +4140,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4105,11 +4166,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4118,11 +4179,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4131,50 +4192,50 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4183,11 +4244,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4196,37 +4257,37 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4235,11 +4296,11 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4248,24 +4309,24 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4274,24 +4335,24 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45383</v>
+        <v>45387</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4300,50 +4361,50 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -4352,27 +4413,14 @@
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S59"/>
+  <dimension ref="A1:S60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4019,7 +4019,7 @@
       <c r="A59" t="n">
         <v>58</v>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="2" t="n">
         <v>45349</v>
       </c>
       <c r="C59" t="n">
@@ -4074,6 +4074,67 @@
       </c>
       <c r="S59" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="n">
+        <v>45350</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="n">
+        <v>132</v>
+      </c>
+      <c r="E60" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.459</v>
+      </c>
+      <c r="G60" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="H60" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="J60" t="n">
+        <v>115.3</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>123</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="N60" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="O60" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>107.4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>1</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4087,7 +4148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4114,11 +4175,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45350</v>
+        <v>45352</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4127,24 +4188,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4153,11 +4214,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4166,11 +4227,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4179,50 +4240,50 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4231,11 +4292,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4244,37 +4305,37 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4283,11 +4344,11 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4296,24 +4357,24 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4322,24 +4383,24 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45383</v>
+        <v>45387</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4348,50 +4409,50 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -4400,27 +4461,14 @@
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -4080,7 +4080,7 @@
       <c r="A60" t="n">
         <v>59</v>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="2" t="n">
         <v>45350</v>
       </c>
       <c r="C60" t="n">

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S60"/>
+  <dimension ref="A1:S61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4135,6 +4135,67 @@
       </c>
       <c r="S60" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="n">
+        <v>45352</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D61" t="n">
+        <v>97</v>
+      </c>
+      <c r="E61" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="G61" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="H61" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="J61" t="n">
+        <v>102.2</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>113</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.517</v>
+      </c>
+      <c r="N61" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O61" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>119</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4148,7 +4209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4175,24 +4236,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45352</v>
+        <v>45355</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>SAC</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4201,11 +4262,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4214,11 +4275,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4227,50 +4288,50 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4279,11 +4340,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4292,37 +4353,37 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4331,11 +4392,11 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4344,24 +4405,24 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4370,24 +4431,24 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45383</v>
+        <v>45387</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4396,50 +4457,50 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -4448,27 +4509,14 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -4141,7 +4141,7 @@
       <c r="A61" t="n">
         <v>60</v>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="2" t="n">
         <v>45352</v>
       </c>
       <c r="C61" t="n">

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S61"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4196,6 +4196,67 @@
       </c>
       <c r="S61" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="3" t="n">
+        <v>45355</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>113</v>
+      </c>
+      <c r="E62" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G62" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H62" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="J62" t="n">
+        <v>121.9</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>109</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="N62" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="O62" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>117.5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4209,7 +4270,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4236,11 +4297,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45355</v>
+        <v>45357</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4249,11 +4310,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4262,11 +4323,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4275,50 +4336,50 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4327,11 +4388,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4340,37 +4401,37 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4379,11 +4440,11 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4392,24 +4453,24 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4418,24 +4479,24 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45383</v>
+        <v>45387</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4444,50 +4505,50 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -4496,27 +4557,14 @@
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -4202,7 +4202,7 @@
       <c r="A62" t="n">
         <v>61</v>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="2" t="n">
         <v>45355</v>
       </c>
       <c r="C62" t="n">

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S62"/>
+  <dimension ref="A1:S63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4256,6 +4256,67 @@
         <v>0</v>
       </c>
       <c r="S62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="3" t="n">
+        <v>45357</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2</v>
+      </c>
+      <c r="D63" t="n">
+        <v>119</v>
+      </c>
+      <c r="E63" t="n">
+        <v>94.8</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.594</v>
+      </c>
+      <c r="G63" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H63" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.133</v>
+      </c>
+      <c r="J63" t="n">
+        <v>125.5</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>117</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.536</v>
+      </c>
+      <c r="N63" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="O63" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>123.4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4270,7 +4331,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4297,11 +4358,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45357</v>
+        <v>45358</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>GSW</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4310,11 +4371,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4323,50 +4384,50 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4375,11 +4436,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4388,37 +4449,37 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4427,11 +4488,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4440,24 +4501,24 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4466,24 +4527,24 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45383</v>
+        <v>45387</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4492,50 +4553,50 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -4544,27 +4605,14 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S63"/>
+  <dimension ref="A1:S64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4263,7 +4263,7 @@
       <c r="A63" t="n">
         <v>62</v>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="2" t="n">
         <v>45357</v>
       </c>
       <c r="C63" t="n">
@@ -4317,6 +4317,67 @@
         <v>0</v>
       </c>
       <c r="S63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="3" t="n">
+        <v>45358</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3</v>
+      </c>
+      <c r="D64" t="n">
+        <v>125</v>
+      </c>
+      <c r="E64" t="n">
+        <v>103</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.621</v>
+      </c>
+      <c r="G64" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="H64" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="J64" t="n">
+        <v>121.3</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>122</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="N64" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="O64" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>118.4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4331,7 +4392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4358,11 +4419,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45358</v>
+        <v>45360</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GSW</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4371,50 +4432,50 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4423,11 +4484,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4436,37 +4497,37 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4475,11 +4536,11 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4488,24 +4549,24 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4514,24 +4575,24 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45383</v>
+        <v>45387</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4540,50 +4601,50 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -4592,27 +4653,14 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -4324,7 +4324,7 @@
       <c r="A64" t="n">
         <v>63</v>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="2" t="n">
         <v>45358</v>
       </c>
       <c r="C64" t="n">

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S64"/>
+  <dimension ref="A1:S65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4379,6 +4379,67 @@
       </c>
       <c r="S64" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="3" t="n">
+        <v>45360</v>
+      </c>
+      <c r="C65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>102</v>
+      </c>
+      <c r="E65" t="n">
+        <v>92.59999999999999</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="G65" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="H65" t="n">
+        <v>25</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="J65" t="n">
+        <v>110.2</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>112</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.571</v>
+      </c>
+      <c r="N65" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="O65" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>121</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4392,7 +4453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4419,50 +4480,50 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45360</v>
+        <v>45362</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4471,11 +4532,11 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4484,37 +4545,37 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4523,11 +4584,11 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4536,24 +4597,24 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4562,24 +4623,24 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45383</v>
+        <v>45387</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -4588,50 +4649,50 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -4640,27 +4701,14 @@
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S65"/>
+  <dimension ref="A1:S66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4385,7 +4385,7 @@
       <c r="A65" t="n">
         <v>64</v>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="2" t="n">
         <v>45360</v>
       </c>
       <c r="C65" t="n">
@@ -4439,6 +4439,67 @@
         <v>0</v>
       </c>
       <c r="S65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="n">
+        <v>45362</v>
+      </c>
+      <c r="C66" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D66" t="n">
+        <v>92</v>
+      </c>
+      <c r="E66" t="n">
+        <v>94.5</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.433</v>
+      </c>
+      <c r="G66" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="H66" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="J66" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>127</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="N66" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O66" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4453,7 +4514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4480,37 +4541,37 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45362</v>
+        <v>45364</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4519,11 +4580,11 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4532,37 +4593,37 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4571,11 +4632,11 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4584,24 +4645,24 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4610,24 +4671,24 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45383</v>
+        <v>45387</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -4636,50 +4697,50 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -4688,27 +4749,14 @@
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -4446,7 +4446,7 @@
       <c r="A66" t="n">
         <v>65</v>
       </c>
-      <c r="B66" s="3" t="n">
+      <c r="B66" s="2" t="n">
         <v>45362</v>
       </c>
       <c r="C66" t="n">

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S66"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4501,6 +4501,67 @@
       </c>
       <c r="S66" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>45364</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>132</v>
+      </c>
+      <c r="E67" t="n">
+        <v>98</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="G67" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H67" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="J67" t="n">
+        <v>122</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>129</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="N67" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="O67" t="n">
+        <v>18</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>119.2</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4514,7 +4575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4541,24 +4602,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45364</v>
+        <v>45365</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4567,11 +4628,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4580,37 +4641,37 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4619,11 +4680,11 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4632,24 +4693,24 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -4658,24 +4719,24 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45383</v>
+        <v>45387</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4684,50 +4745,50 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -4736,27 +4797,14 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S67"/>
+  <dimension ref="A1:S68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4507,7 +4507,7 @@
       <c r="A67" t="n">
         <v>66</v>
       </c>
-      <c r="B67" s="3" t="n">
+      <c r="B67" s="2" t="n">
         <v>45364</v>
       </c>
       <c r="C67" t="n">
@@ -4562,6 +4562,67 @@
       </c>
       <c r="S67" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>45365</v>
+      </c>
+      <c r="C68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>111</v>
+      </c>
+      <c r="E68" t="n">
+        <v>90.09999999999999</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G68" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="H68" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="J68" t="n">
+        <v>123.2</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>126</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.725</v>
+      </c>
+      <c r="N68" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O68" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>139.9</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4575,7 +4636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4602,11 +4663,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45365</v>
+        <v>45367</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4615,11 +4676,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45367</v>
+        <v>45369</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4628,37 +4689,37 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45369</v>
+        <v>45372</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4667,11 +4728,11 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4680,24 +4741,24 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -4706,24 +4767,24 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45383</v>
+        <v>45387</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4732,50 +4793,50 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -4784,27 +4845,14 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -4568,7 +4568,7 @@
       <c r="A68" t="n">
         <v>67</v>
       </c>
-      <c r="B68" s="3" t="n">
+      <c r="B68" s="2" t="n">
         <v>45365</v>
       </c>
       <c r="C68" t="n">

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S68"/>
+  <dimension ref="A1:S70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4623,6 +4623,128 @@
       </c>
       <c r="S68" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>45367</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>127</v>
+      </c>
+      <c r="E69" t="n">
+        <v>98.3</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.624</v>
+      </c>
+      <c r="G69" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="H69" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="J69" t="n">
+        <v>129.2</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>98</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.506</v>
+      </c>
+      <c r="N69" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="O69" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="R69" t="n">
+        <v>1</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>45369</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2</v>
+      </c>
+      <c r="D70" t="n">
+        <v>110</v>
+      </c>
+      <c r="E70" t="n">
+        <v>93.90000000000001</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G70" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H70" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="J70" t="n">
+        <v>117.1</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>107</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N70" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="O70" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>113.9</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4636,7 +4758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4663,24 +4785,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45367</v>
+        <v>45372</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45369</v>
+        <v>45374</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4689,24 +4811,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45372</v>
+        <v>45376</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45374</v>
+        <v>45378</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4715,72 +4837,72 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45376</v>
+        <v>45380</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45378</v>
+        <v>45382</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45382</v>
+        <v>45387</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45383</v>
+        <v>45389</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45387</v>
+        <v>45391</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -4793,11 +4915,11 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45389</v>
+        <v>45393</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4806,53 +4928,27 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45391</v>
+        <v>45394</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>45393</v>
+        <v>45396</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>45394</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -4629,7 +4629,7 @@
       <c r="A69" t="n">
         <v>68</v>
       </c>
-      <c r="B69" s="3" t="n">
+      <c r="B69" s="2" t="n">
         <v>45367</v>
       </c>
       <c r="C69" t="n">
@@ -4690,7 +4690,7 @@
       <c r="A70" t="n">
         <v>69</v>
       </c>
-      <c r="B70" s="3" t="n">
+      <c r="B70" s="2" t="n">
         <v>45369</v>
       </c>
       <c r="C70" t="n">

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S70"/>
+  <dimension ref="A1:S71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4745,6 +4745,67 @@
       </c>
       <c r="S70" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" s="3" t="n">
+        <v>45372</v>
+      </c>
+      <c r="C71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>117</v>
+      </c>
+      <c r="E71" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="G71" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="H71" t="n">
+        <v>25</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="J71" t="n">
+        <v>116.5</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>127</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.597</v>
+      </c>
+      <c r="N71" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="O71" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.172</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>126.5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4758,7 +4819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4785,24 +4846,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45372</v>
+        <v>45374</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4811,11 +4872,11 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4824,24 +4885,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4850,24 +4911,24 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45383</v>
+        <v>45387</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -4876,50 +4937,50 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -4928,27 +4989,14 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -4751,7 +4751,7 @@
       <c r="A71" t="n">
         <v>70</v>
       </c>
-      <c r="B71" s="3" t="n">
+      <c r="B71" s="2" t="n">
         <v>45372</v>
       </c>
       <c r="C71" t="n">

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S71"/>
+  <dimension ref="A1:S72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4805,6 +4805,67 @@
         <v>0</v>
       </c>
       <c r="S71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>45374</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D72" t="n">
+        <v>113</v>
+      </c>
+      <c r="E72" t="n">
+        <v>90.2</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="G72" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H72" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.122</v>
+      </c>
+      <c r="J72" t="n">
+        <v>125.2</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>124</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="N72" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="O72" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>137.4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1</v>
+      </c>
+      <c r="S72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4819,7 +4880,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4846,11 +4907,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45374</v>
+        <v>45376</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4859,11 +4920,11 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4872,24 +4933,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -4898,24 +4959,24 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45383</v>
+        <v>45387</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -4924,50 +4985,50 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -4976,27 +5037,14 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -4812,7 +4812,7 @@
       <c r="A72" t="n">
         <v>71</v>
       </c>
-      <c r="B72" s="3" t="n">
+      <c r="B72" s="2" t="n">
         <v>45374</v>
       </c>
       <c r="C72" t="n">

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S72"/>
+  <dimension ref="A1:S73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4866,6 +4866,67 @@
         <v>1</v>
       </c>
       <c r="S72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" s="3" t="n">
+        <v>45376</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-3</v>
+      </c>
+      <c r="D73" t="n">
+        <v>105</v>
+      </c>
+      <c r="E73" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="G73" t="n">
+        <v>10</v>
+      </c>
+      <c r="H73" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="J73" t="n">
+        <v>105.6</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>107</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.474</v>
+      </c>
+      <c r="N73" t="n">
+        <v>11</v>
+      </c>
+      <c r="O73" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>107.6</v>
+      </c>
+      <c r="R73" t="n">
+        <v>1</v>
+      </c>
+      <c r="S73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,7 +4941,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4907,11 +4968,11 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -4920,24 +4981,24 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -4946,24 +5007,24 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45383</v>
+        <v>45387</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -4972,50 +5033,50 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -5024,27 +5085,14 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -4873,7 +4873,7 @@
       <c r="A73" t="n">
         <v>72</v>
       </c>
-      <c r="B73" s="3" t="n">
+      <c r="B73" s="2" t="n">
         <v>45376</v>
       </c>
       <c r="C73" t="n">

--- a/data/CurrentSeason/CHI.xlsx
+++ b/data/CurrentSeason/CHI.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S73"/>
+  <dimension ref="A1:S74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4928,6 +4928,67 @@
       </c>
       <c r="S73" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="n">
+        <v>45378</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="n">
+        <v>125</v>
+      </c>
+      <c r="E74" t="n">
+        <v>95.2</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="G74" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H74" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="J74" t="n">
+        <v>131.3</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>99</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="N74" t="n">
+        <v>12</v>
+      </c>
+      <c r="O74" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>104</v>
+      </c>
+      <c r="R74" t="n">
+        <v>1</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4941,7 +5002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4968,24 +5029,24 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -4994,24 +5055,24 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45382</v>
+        <v>45383</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45383</v>
+        <v>45387</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -5020,50 +5081,50 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ORL</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>45389</v>
+        <v>45391</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ORL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>45391</v>
+        <v>45393</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>45393</v>
+        <v>45394</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -5072,27 +5133,14 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>45396</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>NYK</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
         <v>0</v>
       </c>
     </row>
